--- a/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,81</t>
+          <t>0,57; 6,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,16</t>
+          <t>3,16; 11,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,03</t>
+          <t>2,32; 6,98</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,52</t>
+          <t>1,48; 6,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,92</t>
+          <t>0,75; 3,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,18</t>
+          <t>1,42; 4,13</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,61</t>
+          <t>1,62; 4,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,21</t>
+          <t>1,62; 4,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,94</t>
+          <t>2,06; 3,99</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,76</t>
+          <t>1,17; 3,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,62</t>
+          <t>1,0; 2,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,68</t>
+          <t>1,26; 2,68</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,84</t>
+          <t>1,27; 3,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,69</t>
+          <t>1,53; 3,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,25</t>
+          <t>1,61; 3,19</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,62</t>
+          <t>0,39; 1,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,01</t>
+          <t>0,28; 1,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,08</t>
+          <t>0,4; 1,08</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,91</t>
+          <t>1,69; 2,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,62</t>
+          <t>1,61; 2,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,55</t>
+          <t>1,75; 2,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,65</t>
+          <t>0,54; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,59</t>
+          <t>2,85; 10,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,98</t>
+          <t>2,32; 6,8</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,45</t>
+          <t>1,63; 6,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,85</t>
+          <t>0,68; 3,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,13</t>
+          <t>1,38; 4,15</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,76</t>
+          <t>1,69; 4,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,1</t>
+          <t>1,77; 4,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,99</t>
+          <t>2,02; 3,97</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,6</t>
+          <t>1,06; 3,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,49</t>
+          <t>0,92; 2,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,68</t>
+          <t>1,27; 2,6</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,85</t>
+          <t>1,22; 3,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,59</t>
+          <t>1,53; 3,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,19</t>
+          <t>1,56; 3,16</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,65</t>
+          <t>0,38; 1,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,01</t>
+          <t>0,26; 0,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,08</t>
+          <t>0,42; 1,1</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,88</t>
+          <t>1,66; 2,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,64</t>
+          <t>1,62; 2,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,54</t>
+          <t>1,74; 2,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,36</t>
+          <t>0,49; 6,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,3</t>
+          <t>3,32; 12,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,8</t>
+          <t>2,34; 7,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,86</t>
+          <t>1,59; 7,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,62</t>
+          <t>0,57; 3,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,15</t>
+          <t>1,25; 4,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,56</t>
+          <t>1,65; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,17</t>
+          <t>1,6; 4,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,97</t>
+          <t>1,94; 3,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,43</t>
+          <t>0,54; 2,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,45</t>
+          <t>0,89; 2,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,6</t>
+          <t>0,92; 2,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,83</t>
+          <t>1,25; 3,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,58</t>
+          <t>1,5; 3,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,16</t>
+          <t>1,57; 3,16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,59</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,42</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,52</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,31</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 1,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,99</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,1</t>
+          <t>0,32; 1,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,63</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,89</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,15</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 2,86</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 2,76</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 2,67</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 2,66</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 2,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
